--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124152a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124152a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,6 +612,24 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2.47</v>
+      </c>
+      <c r="D6">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E6">
+        <v>4.86</v>
+      </c>
+      <c r="F6">
+        <v>13.52</v>
+      </c>
+      <c r="G6">
+        <v>15.93</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -624,19 +639,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.47</v>
+        <v>5.92</v>
       </c>
       <c r="D7">
-        <v>9.279999999999999</v>
+        <v>33.2</v>
       </c>
       <c r="E7">
-        <v>4.86</v>
+        <v>14.66</v>
       </c>
       <c r="F7">
-        <v>13.52</v>
+        <v>27.54</v>
       </c>
       <c r="G7">
-        <v>15.93</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -647,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.92</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8">
-        <v>33.2</v>
+        <v>55.06</v>
       </c>
       <c r="E8">
-        <v>14.66</v>
+        <v>17.94</v>
       </c>
       <c r="F8">
-        <v>27.54</v>
+        <v>35.2</v>
       </c>
       <c r="G8">
-        <v>56.25</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -670,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.300000000000001</v>
+        <v>6.56</v>
       </c>
       <c r="D9">
-        <v>55.06</v>
+        <v>23.11</v>
       </c>
       <c r="E9">
-        <v>17.94</v>
+        <v>12.54</v>
       </c>
       <c r="F9">
-        <v>35.2</v>
+        <v>43.07</v>
       </c>
       <c r="G9">
-        <v>73.05</v>
+        <v>54.52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -693,19 +708,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.56</v>
+        <v>11.21</v>
       </c>
       <c r="D10">
-        <v>23.11</v>
+        <v>45.87</v>
       </c>
       <c r="E10">
-        <v>12.54</v>
-      </c>
-      <c r="F10">
-        <v>43.07</v>
-      </c>
-      <c r="G10">
-        <v>54.52</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -716,13 +725,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.21</v>
+        <v>3.24</v>
       </c>
       <c r="D11">
-        <v>45.87</v>
+        <v>11.81</v>
       </c>
       <c r="E11">
-        <v>17.02</v>
+        <v>6.2</v>
+      </c>
+      <c r="F11">
+        <v>19.04</v>
+      </c>
+      <c r="G11">
+        <v>19.58</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -733,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.24</v>
+        <v>11.44</v>
       </c>
       <c r="D12">
-        <v>11.81</v>
+        <v>31.15</v>
       </c>
       <c r="E12">
-        <v>6.2</v>
+        <v>21.93</v>
       </c>
       <c r="F12">
-        <v>19.04</v>
+        <v>39.52</v>
       </c>
       <c r="G12">
-        <v>19.58</v>
+        <v>64.56</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -756,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.44</v>
+        <v>10.52</v>
       </c>
       <c r="D13">
-        <v>31.15</v>
+        <v>53.5</v>
       </c>
       <c r="E13">
-        <v>21.93</v>
+        <v>21.89</v>
       </c>
       <c r="F13">
-        <v>39.52</v>
+        <v>49.11</v>
       </c>
       <c r="G13">
-        <v>64.56</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -779,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.52</v>
+        <v>1.57</v>
       </c>
       <c r="D14">
-        <v>53.5</v>
+        <v>7.18</v>
       </c>
       <c r="E14">
-        <v>21.89</v>
+        <v>3.54</v>
       </c>
       <c r="F14">
-        <v>49.11</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G14">
-        <v>38.3</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -802,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1.57</v>
+        <v>7.95</v>
       </c>
       <c r="D15">
-        <v>7.18</v>
+        <v>34.74</v>
       </c>
       <c r="E15">
-        <v>3.54</v>
+        <v>12.23</v>
       </c>
       <c r="F15">
-        <v>8.140000000000001</v>
+        <v>33.18</v>
       </c>
       <c r="G15">
-        <v>10.76</v>
+        <v>29.83</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -825,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.95</v>
+        <v>8.48</v>
       </c>
       <c r="D16">
-        <v>34.74</v>
+        <v>37.84</v>
       </c>
       <c r="E16">
-        <v>12.23</v>
+        <v>18.13</v>
       </c>
       <c r="F16">
-        <v>33.18</v>
+        <v>58.57</v>
       </c>
       <c r="G16">
-        <v>29.83</v>
+        <v>57.64</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -848,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.48</v>
+        <v>3.06</v>
       </c>
       <c r="D17">
-        <v>37.84</v>
+        <v>11.3</v>
       </c>
       <c r="E17">
-        <v>18.13</v>
+        <v>7.96</v>
       </c>
       <c r="F17">
-        <v>58.57</v>
+        <v>16.28</v>
       </c>
       <c r="G17">
-        <v>57.64</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -871,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.06</v>
+        <v>6.41</v>
       </c>
       <c r="D18">
-        <v>11.3</v>
+        <v>24.67</v>
       </c>
       <c r="E18">
-        <v>7.96</v>
+        <v>17.17</v>
       </c>
       <c r="F18">
-        <v>16.28</v>
+        <v>26.09</v>
       </c>
       <c r="G18">
-        <v>22.1</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -894,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.41</v>
+        <v>5.91</v>
       </c>
       <c r="D19">
-        <v>24.67</v>
+        <v>19.45</v>
       </c>
       <c r="E19">
-        <v>17.17</v>
+        <v>16.36</v>
       </c>
       <c r="F19">
-        <v>26.09</v>
+        <v>32.04</v>
       </c>
       <c r="G19">
-        <v>31.08</v>
+        <v>47.82</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -917,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.91</v>
+        <v>3.46</v>
       </c>
       <c r="D20">
-        <v>19.45</v>
+        <v>14.94</v>
       </c>
       <c r="E20">
-        <v>16.36</v>
+        <v>7.45</v>
       </c>
       <c r="F20">
-        <v>32.04</v>
+        <v>16.25</v>
       </c>
       <c r="G20">
-        <v>47.82</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -940,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.46</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D21">
-        <v>14.94</v>
+        <v>39.63</v>
       </c>
       <c r="E21">
-        <v>7.45</v>
+        <v>17.94</v>
       </c>
       <c r="F21">
-        <v>16.25</v>
+        <v>28.8</v>
       </c>
       <c r="G21">
-        <v>24.67</v>
+        <v>71.98</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -963,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.220000000000001</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>39.63</v>
+        <v>37.63</v>
       </c>
       <c r="E22">
-        <v>17.94</v>
+        <v>17.49</v>
       </c>
       <c r="F22">
-        <v>28.8</v>
+        <v>72.12</v>
       </c>
       <c r="G22">
-        <v>71.98</v>
+        <v>63.81</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -986,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="D23">
-        <v>37.63</v>
+        <v>13.57</v>
       </c>
       <c r="E23">
-        <v>17.49</v>
+        <v>6.24</v>
       </c>
       <c r="F23">
-        <v>72.12</v>
+        <v>14.85</v>
       </c>
       <c r="G23">
-        <v>63.81</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1009,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="D24">
-        <v>13.57</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E24">
-        <v>6.24</v>
+        <v>4.7</v>
       </c>
       <c r="F24">
-        <v>14.85</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="G24">
-        <v>17.96</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1032,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.5</v>
+        <v>3.13</v>
       </c>
       <c r="D25">
-        <v>9.789999999999999</v>
+        <v>17.47</v>
       </c>
       <c r="E25">
-        <v>4.7</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F25">
-        <v>8.029999999999999</v>
+        <v>15.68</v>
       </c>
       <c r="G25">
-        <v>15.7</v>
+        <v>28.61</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1055,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>3.13</v>
+        <v>5.27</v>
       </c>
       <c r="D26">
-        <v>17.47</v>
+        <v>29.79</v>
       </c>
       <c r="E26">
-        <v>9.470000000000001</v>
+        <v>21.03</v>
       </c>
       <c r="F26">
-        <v>15.68</v>
+        <v>32.01</v>
       </c>
       <c r="G26">
-        <v>28.61</v>
+        <v>36.53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1078,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5.27</v>
+        <v>2.85</v>
       </c>
       <c r="D27">
-        <v>29.79</v>
+        <v>15.99</v>
       </c>
       <c r="E27">
-        <v>21.03</v>
+        <v>7.99</v>
       </c>
       <c r="F27">
-        <v>32.01</v>
+        <v>15.01</v>
       </c>
       <c r="G27">
-        <v>36.53</v>
+        <v>36.89</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1101,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2.85</v>
+        <v>2.16</v>
       </c>
       <c r="D28">
-        <v>15.99</v>
+        <v>16.81</v>
       </c>
       <c r="E28">
-        <v>7.99</v>
+        <v>7.01</v>
       </c>
       <c r="F28">
-        <v>15.01</v>
+        <v>11.79</v>
       </c>
       <c r="G28">
-        <v>36.89</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1124,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>2.16</v>
+        <v>2.45</v>
       </c>
       <c r="D29">
-        <v>16.81</v>
+        <v>14.14</v>
       </c>
       <c r="E29">
-        <v>7.01</v>
+        <v>6.92</v>
       </c>
       <c r="F29">
-        <v>11.79</v>
+        <v>10.77</v>
       </c>
       <c r="G29">
-        <v>25.28</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1147,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="D30">
-        <v>14.14</v>
+        <v>23.45</v>
       </c>
       <c r="E30">
-        <v>6.92</v>
+        <v>10.98</v>
       </c>
       <c r="F30">
-        <v>10.77</v>
+        <v>15.75</v>
       </c>
       <c r="G30">
-        <v>26.3</v>
+        <v>40.78</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1170,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>3.4</v>
+        <v>10.88</v>
       </c>
       <c r="D31">
-        <v>23.45</v>
+        <v>49.18</v>
       </c>
       <c r="E31">
-        <v>10.98</v>
+        <v>18.64</v>
       </c>
       <c r="F31">
-        <v>15.75</v>
+        <v>41.57</v>
       </c>
       <c r="G31">
-        <v>40.78</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1193,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>10.88</v>
+        <v>3.51</v>
       </c>
       <c r="D32">
-        <v>49.18</v>
+        <v>17.49</v>
       </c>
       <c r="E32">
-        <v>18.64</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F32">
-        <v>41.57</v>
+        <v>14.28</v>
       </c>
       <c r="G32">
-        <v>97.25</v>
+        <v>35.18</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1216,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.51</v>
+        <v>2.63</v>
       </c>
       <c r="D33">
-        <v>17.49</v>
+        <v>11.14</v>
       </c>
       <c r="E33">
-        <v>9.949999999999999</v>
+        <v>7.23</v>
       </c>
       <c r="F33">
-        <v>14.28</v>
+        <v>13.62</v>
       </c>
       <c r="G33">
-        <v>35.18</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1239,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2.63</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D34">
-        <v>11.14</v>
+        <v>30.58</v>
       </c>
       <c r="E34">
-        <v>7.23</v>
+        <v>17.74</v>
       </c>
       <c r="F34">
-        <v>13.62</v>
+        <v>28.54</v>
       </c>
       <c r="G34">
-        <v>20.98</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1262,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>8.949999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="D35">
-        <v>30.58</v>
+        <v>41.03</v>
       </c>
       <c r="E35">
-        <v>17.74</v>
+        <v>14.71</v>
       </c>
       <c r="F35">
-        <v>28.54</v>
+        <v>30.98</v>
       </c>
       <c r="G35">
-        <v>39.58</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1285,41 +1300,18 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>6.25</v>
+        <v>4.35</v>
       </c>
       <c r="D36">
-        <v>41.03</v>
+        <v>16.81</v>
       </c>
       <c r="E36">
-        <v>14.71</v>
+        <v>11.26</v>
       </c>
       <c r="F36">
-        <v>30.98</v>
+        <v>23.92</v>
       </c>
       <c r="G36">
-        <v>28.23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>4.35</v>
-      </c>
-      <c r="D37">
-        <v>16.81</v>
-      </c>
-      <c r="E37">
-        <v>11.26</v>
-      </c>
-      <c r="F37">
-        <v>23.92</v>
-      </c>
-      <c r="G37">
         <v>38.58</v>
       </c>
     </row>
